--- a/Tests/UnderReview/Cotton/Observed/Emerald2015Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Emerald2015Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Prototypes\Cotton\Observed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885B1E55-7D83-4148-AE7A-314BF640BEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF6269-64FE-4E42-9D7E-FC613557553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3150B938-1320-42B8-B855-5DFCB1CA6EF9}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{3150B938-1320-42B8-B855-5DFCB1CA6EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,7 +276,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -382,7 +382,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -535,10 +535,10 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P16:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,12 +689,24 @@
         <v>1000</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="K2" s="4">
+        <v>65</v>
+      </c>
+      <c r="L2" s="4">
+        <v>85</v>
+      </c>
+      <c r="M2" s="4">
+        <v>121</v>
+      </c>
+      <c r="N2" s="4">
+        <v>136</v>
+      </c>
+      <c r="O2" s="4">
+        <v>159</v>
+      </c>
+      <c r="P2" s="4">
+        <v>177</v>
+      </c>
       <c r="Q2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -732,11 +744,21 @@
       <c r="K3" s="4">
         <v>65</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="L3" s="4">
+        <v>85</v>
+      </c>
+      <c r="M3" s="4">
+        <v>121</v>
+      </c>
+      <c r="N3" s="4">
+        <v>136</v>
+      </c>
+      <c r="O3" s="4">
+        <v>159</v>
+      </c>
+      <c r="P3" s="4">
+        <v>177</v>
+      </c>
       <c r="Q3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -771,14 +793,24 @@
         <v>1000</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4">
+        <v>65</v>
+      </c>
       <c r="L4" s="4">
         <v>85</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="M4" s="4">
+        <v>121</v>
+      </c>
+      <c r="N4" s="4">
+        <v>136</v>
+      </c>
+      <c r="O4" s="4">
+        <v>159</v>
+      </c>
+      <c r="P4" s="4">
+        <v>177</v>
+      </c>
       <c r="Q4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -813,14 +845,24 @@
         <v>1000</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="4">
+        <v>65</v>
+      </c>
+      <c r="L5" s="4">
+        <v>85</v>
+      </c>
       <c r="M5" s="4">
         <v>121</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="N5" s="4">
+        <v>136</v>
+      </c>
+      <c r="O5" s="4">
+        <v>159</v>
+      </c>
+      <c r="P5" s="4">
+        <v>177</v>
+      </c>
       <c r="Q5"/>
       <c r="S5"/>
       <c r="T5"/>
@@ -855,14 +897,24 @@
         <v>1000</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="K6" s="4">
+        <v>65</v>
+      </c>
+      <c r="L6" s="4">
+        <v>85</v>
+      </c>
+      <c r="M6" s="4">
+        <v>121</v>
+      </c>
       <c r="N6" s="4">
         <v>136</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="O6" s="4">
+        <v>159</v>
+      </c>
+      <c r="P6" s="4">
+        <v>177</v>
+      </c>
       <c r="Q6"/>
       <c r="S6"/>
       <c r="T6"/>
@@ -897,14 +949,24 @@
         <v>1000</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="K7" s="4">
+        <v>65</v>
+      </c>
+      <c r="L7" s="4">
+        <v>85</v>
+      </c>
+      <c r="M7" s="4">
+        <v>121</v>
+      </c>
+      <c r="N7" s="4">
+        <v>136</v>
+      </c>
       <c r="O7" s="4">
         <v>159</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="P7" s="4">
+        <v>177</v>
+      </c>
       <c r="Q7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -960,11 +1022,21 @@
         <v>1000</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="K8" s="4">
+        <v>65</v>
+      </c>
+      <c r="L8" s="4">
+        <v>85</v>
+      </c>
+      <c r="M8" s="4">
+        <v>121</v>
+      </c>
+      <c r="N8" s="4">
+        <v>136</v>
+      </c>
+      <c r="O8" s="4">
+        <v>159</v>
+      </c>
       <c r="P8" s="4">
         <v>177</v>
       </c>
@@ -1011,12 +1083,24 @@
         <v>1000</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="K9" s="4">
+        <v>56</v>
+      </c>
+      <c r="L9" s="4">
+        <v>71</v>
+      </c>
+      <c r="M9" s="4">
+        <v>106</v>
+      </c>
+      <c r="N9" s="4">
+        <v>122</v>
+      </c>
+      <c r="O9" s="4">
+        <v>143</v>
+      </c>
+      <c r="P9" s="4">
+        <v>160</v>
+      </c>
       <c r="Q9"/>
       <c r="S9"/>
       <c r="T9" s="3"/>
@@ -1054,11 +1138,21 @@
       <c r="K10" s="4">
         <v>56</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="L10" s="4">
+        <v>71</v>
+      </c>
+      <c r="M10" s="4">
+        <v>106</v>
+      </c>
+      <c r="N10" s="4">
+        <v>122</v>
+      </c>
+      <c r="O10" s="4">
+        <v>143</v>
+      </c>
+      <c r="P10" s="4">
+        <v>160</v>
+      </c>
       <c r="Q10"/>
       <c r="S10"/>
       <c r="T10" s="3"/>
@@ -1093,14 +1187,24 @@
         <v>1000</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4">
+        <v>56</v>
+      </c>
       <c r="L11" s="4">
         <v>71</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="M11" s="4">
+        <v>106</v>
+      </c>
+      <c r="N11" s="4">
+        <v>122</v>
+      </c>
+      <c r="O11" s="4">
+        <v>143</v>
+      </c>
+      <c r="P11" s="4">
+        <v>160</v>
+      </c>
       <c r="Q11"/>
       <c r="S11"/>
       <c r="T11" s="3"/>
@@ -1135,14 +1239,24 @@
         <v>1000</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="4">
+        <v>56</v>
+      </c>
+      <c r="L12" s="4">
+        <v>71</v>
+      </c>
       <c r="M12" s="4">
         <v>106</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="N12" s="4">
+        <v>122</v>
+      </c>
+      <c r="O12" s="4">
+        <v>143</v>
+      </c>
+      <c r="P12" s="4">
+        <v>160</v>
+      </c>
       <c r="Q12"/>
       <c r="S12"/>
       <c r="T12" s="3"/>
@@ -1177,14 +1291,24 @@
         <v>1000</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="K13" s="4">
+        <v>56</v>
+      </c>
+      <c r="L13" s="4">
+        <v>71</v>
+      </c>
+      <c r="M13" s="4">
+        <v>106</v>
+      </c>
       <c r="N13" s="4">
         <v>122</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="O13" s="4">
+        <v>143</v>
+      </c>
+      <c r="P13" s="4">
+        <v>160</v>
+      </c>
       <c r="Q13"/>
       <c r="S13"/>
       <c r="T13" s="3"/>
@@ -1219,14 +1343,24 @@
         <v>1000</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="K14" s="4">
+        <v>56</v>
+      </c>
+      <c r="L14" s="4">
+        <v>71</v>
+      </c>
+      <c r="M14" s="4">
+        <v>106</v>
+      </c>
+      <c r="N14" s="4">
+        <v>122</v>
+      </c>
       <c r="O14" s="4">
         <v>143</v>
       </c>
-      <c r="P14" s="4"/>
+      <c r="P14" s="4">
+        <v>160</v>
+      </c>
       <c r="Q14"/>
       <c r="S14"/>
       <c r="T14" s="3"/>
@@ -1282,11 +1416,21 @@
         <v>1000</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="K15" s="4">
+        <v>56</v>
+      </c>
+      <c r="L15" s="4">
+        <v>71</v>
+      </c>
+      <c r="M15" s="4">
+        <v>106</v>
+      </c>
+      <c r="N15" s="4">
+        <v>122</v>
+      </c>
+      <c r="O15" s="4">
+        <v>143</v>
+      </c>
       <c r="P15" s="4">
         <v>160</v>
       </c>
@@ -1333,12 +1477,24 @@
         <v>1000</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="K16" s="4">
+        <v>49</v>
+      </c>
+      <c r="L16" s="4">
+        <v>71</v>
+      </c>
+      <c r="M16" s="4">
+        <v>107</v>
+      </c>
+      <c r="N16" s="4">
+        <v>124</v>
+      </c>
+      <c r="O16" s="4">
+        <v>140</v>
+      </c>
+      <c r="P16" s="4">
+        <v>161</v>
+      </c>
       <c r="Q16"/>
       <c r="S16"/>
       <c r="T16" s="3"/>
@@ -1376,11 +1532,21 @@
       <c r="K17" s="4">
         <v>49</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="L17" s="4">
+        <v>71</v>
+      </c>
+      <c r="M17" s="4">
+        <v>107</v>
+      </c>
+      <c r="N17" s="4">
+        <v>124</v>
+      </c>
+      <c r="O17" s="4">
+        <v>140</v>
+      </c>
+      <c r="P17" s="4">
+        <v>161</v>
+      </c>
       <c r="Q17"/>
       <c r="S17"/>
       <c r="T17" s="3"/>
@@ -1415,14 +1581,24 @@
         <v>1000</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4">
+        <v>49</v>
+      </c>
       <c r="L18" s="4">
         <v>71</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="M18" s="4">
+        <v>107</v>
+      </c>
+      <c r="N18" s="4">
+        <v>124</v>
+      </c>
+      <c r="O18" s="4">
+        <v>140</v>
+      </c>
+      <c r="P18" s="4">
+        <v>161</v>
+      </c>
       <c r="Q18"/>
       <c r="S18"/>
       <c r="T18" s="3"/>
@@ -1457,14 +1633,24 @@
         <v>1000</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="4">
+        <v>49</v>
+      </c>
+      <c r="L19" s="4">
+        <v>71</v>
+      </c>
       <c r="M19" s="4">
         <v>107</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="N19" s="4">
+        <v>124</v>
+      </c>
+      <c r="O19" s="4">
+        <v>140</v>
+      </c>
+      <c r="P19" s="4">
+        <v>161</v>
+      </c>
       <c r="Q19"/>
       <c r="S19"/>
       <c r="T19" s="3"/>
@@ -1499,14 +1685,24 @@
         <v>1000</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="K20" s="4">
+        <v>49</v>
+      </c>
+      <c r="L20" s="4">
+        <v>71</v>
+      </c>
+      <c r="M20" s="4">
+        <v>107</v>
+      </c>
       <c r="N20" s="4">
         <v>124</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="O20" s="4">
+        <v>140</v>
+      </c>
+      <c r="P20" s="4">
+        <v>161</v>
+      </c>
       <c r="Q20"/>
       <c r="S20"/>
       <c r="T20" s="3"/>
@@ -1541,14 +1737,24 @@
         <v>1000</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="K21" s="4">
+        <v>49</v>
+      </c>
+      <c r="L21" s="4">
+        <v>71</v>
+      </c>
+      <c r="M21" s="4">
+        <v>107</v>
+      </c>
+      <c r="N21" s="4">
+        <v>124</v>
+      </c>
       <c r="O21" s="4">
         <v>140</v>
       </c>
-      <c r="P21" s="4"/>
+      <c r="P21" s="4">
+        <v>161</v>
+      </c>
       <c r="Q21"/>
       <c r="S21"/>
       <c r="T21" s="3"/>
@@ -1604,11 +1810,21 @@
         <v>1000</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="K22" s="4">
+        <v>49</v>
+      </c>
+      <c r="L22" s="4">
+        <v>71</v>
+      </c>
+      <c r="M22" s="4">
+        <v>107</v>
+      </c>
+      <c r="N22" s="4">
+        <v>124</v>
+      </c>
+      <c r="O22" s="4">
+        <v>140</v>
+      </c>
       <c r="P22" s="4">
         <v>161</v>
       </c>

--- a/Tests/UnderReview/Cotton/Observed/Emerald2015Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Emerald2015Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF6269-64FE-4E42-9D7E-FC613557553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E980959-0AD4-48DE-900C-F2EAACA72FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{3150B938-1320-42B8-B855-5DFCB1CA6EF9}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>AboveGround.Partitioning.Leaf</t>
   </si>
   <si>
-    <t>AboveGround.Partitioning.Fruit</t>
-  </si>
-  <si>
     <t>openz</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Yield_bales</t>
+  </si>
+  <si>
+    <t>AboveGround.Partitioning.Boll</t>
   </si>
 </sst>
 </file>
@@ -535,10 +535,10 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P16:P22"/>
+      <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,10 +633,10 @@
         <v>21</v>
       </c>
       <c r="T1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V1" t="s">
         <v>2</v>
@@ -654,15 +654,15 @@
         <v>23</v>
       </c>
       <c r="AA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" t="s">
         <v>24</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1">
         <v>42217</v>
@@ -671,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="3">
         <v>9.6</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>42282</v>
@@ -723,16 +723,16 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4">
         <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="3">
         <v>9.6</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>42302</v>
@@ -775,16 +775,16 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4">
         <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="3">
         <v>9.6</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>42338</v>
@@ -827,16 +827,16 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4">
         <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3">
         <v>9.6</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>42353</v>
@@ -879,16 +879,16 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4">
         <v>136</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3">
         <v>9.6</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>42376</v>
@@ -931,16 +931,16 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4">
         <v>159</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3">
         <v>9.6</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>42394</v>
@@ -1004,16 +1004,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4">
         <v>177</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3">
         <v>9.6</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>42237</v>
@@ -1065,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="3">
         <v>11.3</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>42293</v>
@@ -1117,16 +1117,16 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="4">
         <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3">
         <v>11.3</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>42308</v>
@@ -1169,16 +1169,16 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4">
         <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="3">
         <v>11.3</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>42343</v>
@@ -1221,16 +1221,16 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4">
         <v>106</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3">
         <v>11.3</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>42359</v>
@@ -1273,16 +1273,16 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4">
         <v>122</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="3">
         <v>11.3</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>42380</v>
@@ -1325,16 +1325,16 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4">
         <v>143</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3">
         <v>11.3</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>42397</v>
@@ -1398,16 +1398,16 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4">
         <v>160</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="3">
         <v>11.3</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>42262</v>
@@ -1459,16 +1459,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="3">
         <v>10.1</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>42311</v>
@@ -1511,16 +1511,16 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="4">
         <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="3">
         <v>10.1</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>42333</v>
@@ -1563,16 +1563,16 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="4">
         <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="3">
         <v>10.1</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>42369</v>
@@ -1615,16 +1615,16 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4">
         <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" s="3">
         <v>10.1</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
         <v>42386</v>
@@ -1667,16 +1667,16 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="4">
         <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20" s="3">
         <v>10.1</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>42402</v>
@@ -1719,16 +1719,16 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="4">
         <v>140</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" s="3">
         <v>10.1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
         <v>42423</v>
@@ -1792,16 +1792,16 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="4">
         <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" s="3">
         <v>10.1</v>

--- a/Tests/UnderReview/Cotton/Observed/Emerald2015Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Emerald2015Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C29D7F-2692-4C3D-BF22-AB037D2BB28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F0191E-F88C-4830-A490-0A39391A27CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3150B938-1320-42B8-B855-5DFCB1CA6EF9}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{3150B938-1320-42B8-B855-5DFCB1CA6EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -132,49 +132,49 @@
     <t>AboveGround.Partitioning.Boll</t>
   </si>
   <si>
+    <t>Cotton.Phenology.SquaringDAS</t>
+  </si>
+  <si>
+    <t>Cotton.Phenology.FloweringDAS</t>
+  </si>
+  <si>
+    <t>Cotton.Phenology.CutoutDAS</t>
+  </si>
+  <si>
+    <t>Cotton.Phenology.OpenBollsDAS</t>
+  </si>
+  <si>
+    <t>Cotton.Phenology.MaturityDAS</t>
+  </si>
+  <si>
+    <t>Cotton.Phenology.HarvestRipeDAS</t>
+  </si>
+  <si>
+    <t>Sicot 74BRF</t>
+  </si>
+  <si>
+    <t>6-7 nodes</t>
+  </si>
+  <si>
+    <t>FF + 3 weeks</t>
+  </si>
+  <si>
+    <t>Cotton.Leaf.LAI</t>
+  </si>
+  <si>
+    <t>Cotton.Leaf.SpecificAreaCanopy</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.HarvestIndex</t>
+  </si>
+  <si>
+    <t>Cotton.Leaf.Height</t>
+  </si>
+  <si>
+    <t>Cotton.Leaf.NodeNumber</t>
+  </si>
+  <si>
     <t>Cotton.Phenology.EmergenceDAS</t>
-  </si>
-  <si>
-    <t>Cotton.Phenology.SquaringDAS</t>
-  </si>
-  <si>
-    <t>Cotton.Phenology.FloweringDAS</t>
-  </si>
-  <si>
-    <t>Cotton.Phenology.CutoutDAS</t>
-  </si>
-  <si>
-    <t>Cotton.Phenology.OpenBollsDAS</t>
-  </si>
-  <si>
-    <t>Cotton.Phenology.MaturityDAS</t>
-  </si>
-  <si>
-    <t>Cotton.Phenology.HarvestRipeDAS</t>
-  </si>
-  <si>
-    <t>Sicot 74BRF</t>
-  </si>
-  <si>
-    <t>6-7 nodes</t>
-  </si>
-  <si>
-    <t>FF + 3 weeks</t>
-  </si>
-  <si>
-    <t>Cotton.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Cotton.Leaf.SpecificAreaCanopy</t>
-  </si>
-  <si>
-    <t>Cotton.Boll.HarvestIndex</t>
-  </si>
-  <si>
-    <t>Cotton.Leaf.Height</t>
-  </si>
-  <si>
-    <t>Cotton.Leaf.NodeNumber</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F552A-40E4-417F-B0AA-493C63AE000C}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -619,10 +619,10 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
         <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>11</v>
@@ -640,10 +640,10 @@
         <v>27</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>2</v>
@@ -664,7 +664,7 @@
         <v>29</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>16</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="5">
         <v>9.5500000000000007</v>
@@ -712,13 +712,13 @@
         <v>42265</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4">
         <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="5">
         <v>9.5500000000000007</v>
@@ -776,7 +776,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2">
@@ -798,7 +798,7 @@
         <v>62</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
@@ -826,7 +826,7 @@
         <v>67</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5">
         <v>9.5500000000000007</v>
@@ -884,7 +884,7 @@
         <v>68</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
@@ -906,7 +906,7 @@
         <v>82</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2">
         <v>481</v>
@@ -936,7 +936,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5">
         <v>9.5500000000000007</v>
@@ -994,7 +994,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="2">
         <v>550</v>
@@ -1018,7 +1018,7 @@
         <v>101</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2">
         <v>827</v>
@@ -1039,13 +1039,13 @@
         <v>42326</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4">
         <v>109</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="5">
         <v>9.5500000000000007</v>
@@ -1107,7 +1107,7 @@
         <v>116</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2">
         <v>931.75</v>
@@ -1137,7 +1137,7 @@
         <v>123</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="5">
         <v>9.5500000000000007</v>
@@ -1205,7 +1205,7 @@
         <v>138</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5">
         <v>9.5500000000000007</v>
@@ -1269,7 +1269,7 @@
         <v>164</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="5">
         <v>9.5500000000000007</v>
@@ -1333,7 +1333,7 @@
         <v>177</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="5">
         <v>9.5500000000000007</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="5">
         <v>11.25</v>
@@ -1397,13 +1397,13 @@
         <v>42279</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="9">
         <v>42</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="5">
         <v>11.25</v>
@@ -1464,7 +1464,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1491,7 +1491,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="5">
         <v>11.25</v>
@@ -1550,7 +1550,7 @@
         <v>62</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1574,7 +1574,7 @@
         <v>69</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1602,7 +1602,7 @@
         <v>75</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="5">
         <v>11.25</v>
@@ -1661,7 +1661,7 @@
         <v>81</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1684,7 +1684,7 @@
         <v>89</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1703,13 +1703,13 @@
         <v>42327</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="9">
         <v>90</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="5">
         <v>11.25</v>
@@ -1768,7 +1768,7 @@
         <v>96</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1791,7 +1791,7 @@
         <v>103</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1819,7 +1819,7 @@
         <v>108</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="5">
         <v>11.25</v>
@@ -1878,7 +1878,7 @@
         <v>110</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -1906,7 +1906,7 @@
         <v>123</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" s="5">
         <v>11.25</v>
@@ -1970,7 +1970,7 @@
         <v>145</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" s="5">
         <v>11.25</v>
@@ -2034,7 +2034,7 @@
         <v>160</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" s="5">
         <v>11.25</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" s="5">
         <v>9.4600000000000009</v>
@@ -2098,13 +2098,13 @@
         <v>42293</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="9">
         <v>31</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" s="5">
         <v>9.4600000000000009</v>
@@ -2164,7 +2164,7 @@
         <v>37</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2187,7 +2187,7 @@
         <v>44</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2215,7 +2215,7 @@
         <v>49</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="5">
         <v>9.4600000000000009</v>
@@ -2275,7 +2275,7 @@
         <v>56</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2303,7 +2303,7 @@
         <v>64</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="5">
         <v>9.4600000000000009</v>
@@ -2367,7 +2367,7 @@
         <v>71</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2390,7 +2390,7 @@
         <v>78</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -2409,13 +2409,13 @@
         <v>42345</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" s="9">
         <v>83</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" s="5">
         <v>9.4600000000000009</v>
@@ -2475,7 +2475,7 @@
         <v>85</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -2498,7 +2498,7 @@
         <v>94</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -2526,7 +2526,7 @@
         <v>98</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" s="5">
         <v>9.4600000000000009</v>
@@ -2586,7 +2586,7 @@
         <v>99</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -2614,7 +2614,7 @@
         <v>112</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" s="5">
         <v>9.4600000000000009</v>
@@ -2679,7 +2679,7 @@
         <v>145</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" s="5">
         <v>9.4600000000000009</v>
@@ -2744,7 +2744,7 @@
         <v>179</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" s="5">
         <v>9.4600000000000009</v>
@@ -2777,14 +2777,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D514C363-0C51-48C9-B03D-3EAE5BBC25DE}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2799,32 +2799,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
       <c r="C2" s="2">
         <v>67</v>
       </c>
@@ -2848,7 +2850,9 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
       <c r="C3" s="2">
         <v>51</v>
       </c>
@@ -2872,7 +2876,9 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
       <c r="C4" s="2">
         <v>49</v>
       </c>
@@ -2891,6 +2897,105 @@
       <c r="H4" s="2">
         <v>179</v>
       </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tests/UnderReview/Cotton/Observed/Emerald2015Observed.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Emerald2015Observed.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F0191E-F88C-4830-A490-0A39391A27CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D63FC-8804-4E6C-81B2-11FE3328729D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{3150B938-1320-42B8-B855-5DFCB1CA6EF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3150B938-1320-42B8-B855-5DFCB1CA6EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
     <sheet name="PhenologyObserved" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CottonObserved!$A$1:$Y$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CottonObserved!$A$1:$Z$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="46">
   <si>
     <t>SimulationName</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Cotton.Phenology.EmergenceDAS</t>
+  </si>
+  <si>
+    <t>Cotton.SeedCotton.Wt</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F552A-40E4-417F-B0AA-493C63AE000C}">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -575,25 +578,26 @@
     <col min="8" max="8" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="5"/>
+    <col min="11" max="11" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -624,53 +628,56 @@
       <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -697,14 +704,12 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="K2" s="5"/>
       <c r="Q2" s="4"/>
-      <c r="Y2" s="8"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R2" s="4"/>
+      <c r="Z2" s="8"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -728,44 +733,35 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="O3" s="6">
+      <c r="K3" s="5"/>
+      <c r="P3" s="6">
         <v>6.0500000000000007</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>6.0256249999999997E-2</v>
       </c>
-      <c r="Q3" s="7">
-        <f>P3/O3</f>
+      <c r="R3" s="7">
+        <f>Q3/P3</f>
         <v>9.9597107438016506E-3</v>
       </c>
-      <c r="R3" s="6">
+      <c r="S3" s="6">
         <v>2.8187499999999996</v>
       </c>
-      <c r="S3" s="6">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <f>SUM(O3:S3)</f>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6">
+        <f>SUM(P3:T3)</f>
         <v>8.9389659607438023</v>
       </c>
-      <c r="U3" s="5">
-        <f>R3/T3</f>
+      <c r="V3" s="5">
+        <f>S3/U3</f>
         <v>0.31533289335464193</v>
       </c>
-      <c r="V3" s="5">
-        <f>O3/T3</f>
+      <c r="W3" s="5">
+        <f>P3/U3</f>
         <v>0.67681206378557301</v>
       </c>
-      <c r="W3" s="5">
-        <f>S3/T3</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="5">
-        <f>S3/T3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -782,12 +778,13 @@
       <c r="J4" s="2">
         <v>4.8499999999999996</v>
       </c>
-      <c r="K4"/>
-      <c r="O4"/>
-      <c r="Q4"/>
-      <c r="U4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="V4"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -804,12 +801,13 @@
       <c r="J5" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K5"/>
-      <c r="O5"/>
-      <c r="Q5"/>
-      <c r="U5"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="P5"/>
+      <c r="R5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -836,44 +834,45 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="O6" s="6">
+      <c r="K6" s="5"/>
+      <c r="P6" s="6">
         <v>24.15</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>0.23917499999999994</v>
       </c>
-      <c r="Q6" s="7">
-        <f>P6/O6</f>
+      <c r="R6" s="7">
+        <f>Q6/P6</f>
         <v>9.9037267080745329E-3</v>
       </c>
-      <c r="R6" s="6">
+      <c r="S6" s="6">
         <v>18.462499999999999</v>
       </c>
-      <c r="S6" s="6">
+      <c r="T6" s="6">
         <v>2.4736039515622594</v>
       </c>
-      <c r="T6" s="6">
-        <f>SUM(O6:S6)</f>
+      <c r="U6" s="6">
+        <f>SUM(P6:T6)</f>
         <v>45.335182678270336</v>
       </c>
-      <c r="U6" s="5">
-        <f>R6/T6</f>
+      <c r="V6" s="5">
+        <f>S6/U6</f>
         <v>0.40724441613090229</v>
       </c>
-      <c r="V6" s="5">
-        <f>O6/T6</f>
+      <c r="W6" s="5">
+        <f>P6/U6</f>
         <v>0.53269885711909493</v>
       </c>
-      <c r="W6" s="5">
-        <f>S6/T6</f>
+      <c r="X6" s="5">
+        <f>T6/U6</f>
         <v>5.4562567203415853E-2</v>
       </c>
-      <c r="X6" s="5">
-        <f>S6/T6</f>
+      <c r="Y6" s="5">
+        <f>T6/U6</f>
         <v>5.4562567203415853E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -890,12 +889,13 @@
       <c r="J7" s="2">
         <v>10.775</v>
       </c>
-      <c r="K7"/>
-      <c r="O7"/>
-      <c r="Q7"/>
-      <c r="U7"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="P7"/>
+      <c r="R7"/>
+      <c r="V7"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -914,12 +914,13 @@
       <c r="J8" s="2">
         <v>14.475</v>
       </c>
-      <c r="K8"/>
-      <c r="O8"/>
-      <c r="Q8"/>
-      <c r="U8"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="P8"/>
+      <c r="R8"/>
+      <c r="V8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -946,44 +947,45 @@
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="O9" s="6">
+      <c r="K9" s="5"/>
+      <c r="P9" s="6">
         <v>85.802005610261531</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>1.2492019355377233</v>
       </c>
-      <c r="Q9" s="7">
-        <f>P9/O9</f>
+      <c r="R9" s="7">
+        <f>Q9/P9</f>
         <v>1.455912279267659E-2</v>
       </c>
-      <c r="R9" s="6">
+      <c r="S9" s="6">
         <v>83.77238281861348</v>
       </c>
-      <c r="S9" s="6">
+      <c r="T9" s="6">
         <v>14.841623709373557</v>
       </c>
-      <c r="T9" s="6">
-        <f>SUM(O9:S9)</f>
+      <c r="U9" s="6">
+        <f>SUM(P9:T9)</f>
         <v>185.67977319657896</v>
       </c>
-      <c r="U9" s="5">
-        <f>R9/T9</f>
+      <c r="V9" s="5">
+        <f>S9/U9</f>
         <v>0.45116590448397281</v>
       </c>
-      <c r="V9" s="5">
-        <f>O9/T9</f>
+      <c r="W9" s="5">
+        <f>P9/U9</f>
         <v>0.46209667393024573</v>
       </c>
-      <c r="W9" s="5">
-        <f>S9/T9</f>
+      <c r="X9" s="5">
+        <f>T9/U9</f>
         <v>7.9931289519945437E-2</v>
       </c>
-      <c r="X9" s="5">
-        <f>S9/T9</f>
+      <c r="Y9" s="5">
+        <f>T9/U9</f>
         <v>7.9931289519945437E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1002,12 +1004,13 @@
       <c r="J10" s="2">
         <v>16.95</v>
       </c>
-      <c r="K10"/>
-      <c r="O10"/>
-      <c r="Q10"/>
-      <c r="U10"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="P10"/>
+      <c r="R10"/>
+      <c r="V10"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1026,12 +1029,13 @@
       <c r="J11" s="2">
         <v>20.05</v>
       </c>
-      <c r="K11"/>
-      <c r="O11"/>
-      <c r="Q11"/>
-      <c r="U11"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="P11"/>
+      <c r="R11"/>
+      <c r="V11"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1059,44 +1063,45 @@
       <c r="J12" s="2">
         <v>21.524999999999999</v>
       </c>
-      <c r="O12" s="6">
+      <c r="K12" s="1"/>
+      <c r="P12" s="6">
         <v>226.26821947863289</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>2.7797532561653497</v>
       </c>
-      <c r="Q12" s="7">
-        <f>P12/O12</f>
+      <c r="R12" s="7">
+        <f>Q12/P12</f>
         <v>1.2285212932556131E-2</v>
       </c>
-      <c r="R12" s="6">
+      <c r="S12" s="6">
         <v>285.33279165649009</v>
       </c>
-      <c r="S12" s="6">
+      <c r="T12" s="6">
         <v>114.02173814823612</v>
       </c>
-      <c r="T12" s="6">
-        <f>SUM(O12:S12)</f>
+      <c r="U12" s="6">
+        <f>SUM(P12:T12)</f>
         <v>628.41478775245696</v>
       </c>
-      <c r="U12" s="5">
-        <f>R12/T12</f>
+      <c r="V12" s="5">
+        <f>S12/U12</f>
         <v>0.45405168245163485</v>
       </c>
-      <c r="V12" s="5">
-        <f>O12/T12</f>
+      <c r="W12" s="5">
+        <f>P12/U12</f>
         <v>0.36006189524579379</v>
       </c>
-      <c r="W12" s="5">
-        <f>S12/T12</f>
+      <c r="X12" s="5">
+        <f>T12/U12</f>
         <v>0.18144343572187099</v>
       </c>
-      <c r="X12" s="5">
-        <f>S12/T12</f>
+      <c r="Y12" s="5">
+        <f>T12/U12</f>
         <v>0.18144343572187099</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1115,12 +1120,13 @@
       <c r="J13" s="2">
         <v>21.6</v>
       </c>
-      <c r="K13"/>
-      <c r="O13"/>
-      <c r="Q13"/>
-      <c r="U13"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="P13"/>
+      <c r="R13"/>
+      <c r="V13"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1151,44 +1157,45 @@
       <c r="J14" s="2">
         <v>22.524999999999999</v>
       </c>
-      <c r="O14" s="6">
+      <c r="K14" s="1"/>
+      <c r="P14" s="6">
         <v>188.90327142068634</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>3.1133432138518815</v>
       </c>
-      <c r="Q14" s="7">
-        <f>P14/O14</f>
+      <c r="R14" s="7">
+        <f>Q14/P14</f>
         <v>1.6481150328617057E-2</v>
       </c>
-      <c r="R14" s="6">
+      <c r="S14" s="6">
         <v>261.39276028775987</v>
       </c>
-      <c r="S14" s="6">
+      <c r="T14" s="6">
         <v>399.91574599674937</v>
       </c>
-      <c r="T14" s="6">
-        <f>SUM(O14:S14)</f>
+      <c r="U14" s="6">
+        <f>SUM(P14:T14)</f>
         <v>853.34160206937611</v>
       </c>
-      <c r="U14" s="5">
-        <f>R14/T14</f>
+      <c r="V14" s="5">
+        <f>S14/U14</f>
         <v>0.30631667277661778</v>
       </c>
-      <c r="V14" s="5">
-        <f>O14/T14</f>
+      <c r="W14" s="5">
+        <f>P14/U14</f>
         <v>0.2213688761482985</v>
       </c>
-      <c r="W14" s="5">
-        <f>S14/T14</f>
+      <c r="X14" s="5">
+        <f>T14/U14</f>
         <v>0.46864672368831312</v>
       </c>
-      <c r="X14" s="5">
-        <f>S14/T14</f>
+      <c r="Y14" s="5">
+        <f>T14/U14</f>
         <v>0.46864672368831312</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1215,44 +1222,45 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="O15" s="6">
+      <c r="K15" s="5"/>
+      <c r="P15" s="6">
         <v>196.30959768735224</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>3.121836139804687</v>
       </c>
-      <c r="Q15" s="7">
-        <f>P15/O15</f>
+      <c r="R15" s="7">
+        <f>Q15/P15</f>
         <v>1.5902615952464047E-2</v>
       </c>
-      <c r="R15" s="6">
+      <c r="S15" s="6">
         <v>280.3496253427212</v>
       </c>
-      <c r="S15" s="6">
+      <c r="T15" s="6">
         <v>629.08253602487207</v>
       </c>
-      <c r="T15" s="6">
-        <f>SUM(O15:S15)</f>
+      <c r="U15" s="6">
+        <f>SUM(P15:T15)</f>
         <v>1108.8794978107026</v>
       </c>
-      <c r="U15" s="5">
-        <f>R15/T15</f>
+      <c r="V15" s="5">
+        <f>S15/U15</f>
         <v>0.25282244454534936</v>
       </c>
-      <c r="V15" s="5">
-        <f>O15/T15</f>
+      <c r="W15" s="5">
+        <f>P15/U15</f>
         <v>0.17703420261167491</v>
       </c>
-      <c r="W15" s="5">
-        <f>S15/T15</f>
+      <c r="X15" s="5">
+        <f>T15/U15</f>
         <v>0.56731370475050757</v>
       </c>
-      <c r="X15" s="5">
-        <f>S15/T15</f>
+      <c r="Y15" s="5">
+        <f>T15/U15</f>
         <v>0.56731370475050757</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1279,44 +1287,45 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="O16" s="6">
+      <c r="K16" s="5"/>
+      <c r="P16" s="6">
         <v>226.84774664880791</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>2.6258533911366184</v>
       </c>
-      <c r="Q16" s="7">
-        <f>P16/O16</f>
+      <c r="R16" s="7">
+        <f>Q16/P16</f>
         <v>1.1575399932016108E-2</v>
       </c>
-      <c r="R16" s="6">
+      <c r="S16" s="6">
         <v>346.94008009677322</v>
       </c>
-      <c r="S16" s="6">
+      <c r="T16" s="6">
         <v>803.9944254839686</v>
       </c>
-      <c r="T16" s="6">
-        <f>SUM(O16:S16)</f>
+      <c r="U16" s="6">
+        <f>SUM(P16:T16)</f>
         <v>1380.4196810206183</v>
       </c>
-      <c r="U16" s="5">
-        <f>R16/T16</f>
+      <c r="V16" s="5">
+        <f>S16/U16</f>
         <v>0.2513294216728798</v>
       </c>
-      <c r="V16" s="5">
-        <f>O16/T16</f>
+      <c r="W16" s="5">
+        <f>P16/U16</f>
         <v>0.16433244886880141</v>
       </c>
-      <c r="W16" s="5">
-        <f>S16/T16</f>
+      <c r="X16" s="5">
+        <f>T16/U16</f>
         <v>0.58242753022003602</v>
       </c>
-      <c r="X16" s="5">
-        <f>S16/T16</f>
+      <c r="Y16" s="5">
+        <f>T16/U16</f>
         <v>0.58242753022003602</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1343,23 +1352,28 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
+        <v>722.44939607169499</v>
+      </c>
+      <c r="L17" s="5">
         <v>44.449999999999989</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>321.12875655386836</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="8">
+      <c r="N17" s="5">
+        <v>401.32063951782663</v>
+      </c>
+      <c r="O17" s="5">
         <v>14.146641257879665</v>
       </c>
-      <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="Y17" s="8">
+      <c r="R17" s="8"/>
+      <c r="Z17" s="8">
         <v>129.19999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1386,10 +1400,10 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="M18" s="4"/>
-      <c r="Y18" s="8"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K18" s="5"/>
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1415,44 +1429,35 @@
       <c r="J19" s="2">
         <v>5.75</v>
       </c>
-      <c r="O19" s="10">
+      <c r="K19" s="1"/>
+      <c r="P19" s="10">
         <v>10.056249999999999</v>
       </c>
-      <c r="P19" s="11">
+      <c r="Q19" s="11">
         <v>0.10627500000000001</v>
       </c>
-      <c r="Q19" s="7">
-        <f>P19/O19</f>
+      <c r="R19" s="7">
+        <f>Q19/P19</f>
         <v>1.0568054692355503E-2</v>
       </c>
-      <c r="R19" s="10">
+      <c r="S19" s="10">
         <v>4.6375000000000002</v>
       </c>
-      <c r="S19" s="10">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
-        <f>SUM(O19:S19)</f>
+      <c r="T19" s="10"/>
+      <c r="U19" s="6">
+        <f>SUM(P19:T19)</f>
         <v>14.810593054692355</v>
       </c>
-      <c r="U19" s="5">
-        <f>R19/T19</f>
+      <c r="V19" s="5">
+        <f>S19/U19</f>
         <v>0.31312047956990674</v>
       </c>
-      <c r="V19" s="5">
-        <f>O19/T19</f>
+      <c r="W19" s="5">
+        <f>P19/U19</f>
         <v>0.67899036607544461</v>
       </c>
-      <c r="W19" s="5">
-        <f>S19/T19</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <f>S19/T19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1472,9 +1477,9 @@
       <c r="J20" s="2">
         <v>7.85</v>
       </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -1501,44 +1506,45 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="O21" s="10">
+      <c r="K21" s="5"/>
+      <c r="P21" s="10">
         <v>21.65625</v>
       </c>
-      <c r="P21" s="11">
+      <c r="Q21" s="11">
         <v>0.27433750000000001</v>
       </c>
-      <c r="Q21" s="7">
-        <f>P21/O21</f>
+      <c r="R21" s="7">
+        <f>Q21/P21</f>
         <v>1.2667821067821069E-2</v>
       </c>
-      <c r="R21" s="10">
+      <c r="S21" s="10">
         <v>13.981250000000001</v>
       </c>
-      <c r="S21" s="10">
+      <c r="T21" s="10">
         <v>2.3421094856658908</v>
       </c>
-      <c r="T21" s="6">
-        <f>SUM(O21:S21)</f>
+      <c r="U21" s="6">
+        <f>SUM(P21:T21)</f>
         <v>38.26661480673372</v>
       </c>
-      <c r="U21" s="5">
-        <f>R21/T21</f>
+      <c r="V21" s="5">
+        <f>S21/U21</f>
         <v>0.3653641711087478</v>
       </c>
-      <c r="V21" s="5">
-        <f>O21/T21</f>
+      <c r="W21" s="5">
+        <f>P21/U21</f>
         <v>0.56593064501198531</v>
       </c>
-      <c r="W21" s="5">
-        <f>S21/T21</f>
+      <c r="X21" s="5">
+        <f>T21/U21</f>
         <v>6.120503466258409E-2</v>
       </c>
-      <c r="X21" s="5">
-        <f>S21/T21</f>
+      <c r="Y21" s="5">
+        <f>T21/U21</f>
         <v>6.120503466258409E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -1560,9 +1566,9 @@
       <c r="J22" s="2">
         <v>11.15</v>
       </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -1584,8 +1590,9 @@
       <c r="J23" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -1612,44 +1619,45 @@
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="O24" s="10">
+      <c r="K24" s="5"/>
+      <c r="P24" s="10">
         <v>94.668197908402803</v>
       </c>
-      <c r="P24" s="11">
+      <c r="Q24" s="11">
         <v>1.3627774023997914</v>
       </c>
-      <c r="Q24" s="7">
-        <f>P24/O24</f>
+      <c r="R24" s="7">
+        <f>Q24/P24</f>
         <v>1.4395303095537541E-2</v>
       </c>
-      <c r="R24" s="10">
+      <c r="S24" s="10">
         <v>87.153634995622809</v>
       </c>
-      <c r="S24" s="10">
+      <c r="T24" s="10">
         <v>14.052656913995346</v>
       </c>
-      <c r="T24" s="6">
-        <f>SUM(O24:S24)</f>
+      <c r="U24" s="6">
+        <f>SUM(P24:T24)</f>
         <v>197.2516625235163</v>
       </c>
-      <c r="U24" s="5">
-        <f>R24/T24</f>
+      <c r="V24" s="5">
+        <f>S24/U24</f>
         <v>0.44183979937422513</v>
       </c>
-      <c r="V24" s="5">
-        <f>O24/T24</f>
+      <c r="W24" s="5">
+        <f>P24/U24</f>
         <v>0.47993612168980571</v>
       </c>
-      <c r="W24" s="5">
-        <f>S24/T24</f>
+      <c r="X24" s="5">
+        <f>T24/U24</f>
         <v>7.1242273622509983E-2</v>
       </c>
-      <c r="X24" s="5">
-        <f>S24/T24</f>
+      <c r="Y24" s="5">
+        <f>T24/U24</f>
         <v>7.1242273622509983E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1671,8 +1679,9 @@
       <c r="J25" s="2">
         <v>18.149999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1694,8 +1703,9 @@
       <c r="J26" s="2">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
@@ -1719,44 +1729,45 @@
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="O27" s="10">
+      <c r="K27" s="5"/>
+      <c r="P27" s="10">
         <v>272.66068476775905</v>
       </c>
-      <c r="P27" s="11">
+      <c r="Q27" s="11">
         <v>3.0062498900225729</v>
       </c>
-      <c r="Q27" s="7">
-        <f>P27/O27</f>
+      <c r="R27" s="7">
+        <f>Q27/P27</f>
         <v>1.1025608230182398E-2</v>
       </c>
-      <c r="R27" s="10">
+      <c r="S27" s="10">
         <v>296.91054862314928</v>
       </c>
-      <c r="S27" s="10">
+      <c r="T27" s="10">
         <v>82.117764757664503</v>
       </c>
-      <c r="T27" s="6">
-        <f>SUM(O27:S27)</f>
+      <c r="U27" s="6">
+        <f>SUM(P27:T27)</f>
         <v>654.70627364682559</v>
       </c>
-      <c r="U27" s="5">
-        <f>R27/T27</f>
+      <c r="V27" s="5">
+        <f>S27/U27</f>
         <v>0.45350191463617251</v>
       </c>
-      <c r="V27" s="5">
-        <f>O27/T27</f>
+      <c r="W27" s="5">
+        <f>P27/U27</f>
         <v>0.41646261192670803</v>
       </c>
-      <c r="W27" s="5">
-        <f>S27/T27</f>
+      <c r="X27" s="5">
+        <f>T27/U27</f>
         <v>0.12542687929390769</v>
       </c>
-      <c r="X27" s="5">
-        <f>S27/T27</f>
+      <c r="Y27" s="5">
+        <f>T27/U27</f>
         <v>0.12542687929390769</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1778,8 +1789,9 @@
       <c r="J28" s="2">
         <v>19.95</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
@@ -1801,8 +1813,9 @@
       <c r="J29" s="2">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -1829,44 +1842,45 @@
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="O30" s="10">
+      <c r="K30" s="5"/>
+      <c r="P30" s="10">
         <v>199.00476263182486</v>
       </c>
-      <c r="P30" s="11">
+      <c r="Q30" s="11">
         <v>3.3243281303513257</v>
       </c>
-      <c r="Q30" s="7">
-        <f>P30/O30</f>
+      <c r="R30" s="7">
+        <f>Q30/P30</f>
         <v>1.6704766691949004E-2</v>
       </c>
-      <c r="R30" s="10">
+      <c r="S30" s="10">
         <v>256.44410342521178</v>
       </c>
-      <c r="S30" s="10">
+      <c r="T30" s="10">
         <v>337.14738531424558</v>
       </c>
-      <c r="T30" s="6">
-        <f>SUM(O30:S30)</f>
+      <c r="U30" s="6">
+        <f>SUM(P30:T30)</f>
         <v>795.93728426832558</v>
       </c>
-      <c r="U30" s="5">
-        <f>R30/T30</f>
+      <c r="V30" s="5">
+        <f>S30/U30</f>
         <v>0.32219134408429045</v>
       </c>
-      <c r="V30" s="5">
-        <f>O30/T30</f>
+      <c r="W30" s="5">
+        <f>P30/U30</f>
         <v>0.25002568238119699</v>
       </c>
-      <c r="W30" s="5">
-        <f>S30/T30</f>
+      <c r="X30" s="5">
+        <f>T30/U30</f>
         <v>0.42358536530195612</v>
       </c>
-      <c r="X30" s="5">
-        <f>S30/T30</f>
+      <c r="Y30" s="5">
+        <f>T30/U30</f>
         <v>0.42358536530195612</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
@@ -1888,8 +1902,9 @@
       <c r="J31" s="2">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
@@ -1916,44 +1931,45 @@
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="O32" s="10">
+      <c r="K32" s="5"/>
+      <c r="P32" s="10">
         <v>219.92409364768787</v>
       </c>
-      <c r="P32" s="11">
+      <c r="Q32" s="11">
         <v>2.9603444754703503</v>
       </c>
-      <c r="Q32" s="7">
-        <f>P32/O32</f>
+      <c r="R32" s="7">
+        <f>Q32/P32</f>
         <v>1.3460755601488293E-2</v>
       </c>
-      <c r="R32" s="10">
+      <c r="S32" s="10">
         <v>248.95162430275457</v>
       </c>
-      <c r="S32" s="10">
+      <c r="T32" s="10">
         <v>607.699289545743</v>
       </c>
-      <c r="T32" s="6">
-        <f>SUM(O32:S32)</f>
+      <c r="U32" s="6">
+        <f>SUM(P32:T32)</f>
         <v>1079.5488127272574</v>
       </c>
-      <c r="U32" s="5">
-        <f>R32/T32</f>
+      <c r="V32" s="5">
+        <f>S32/U32</f>
         <v>0.2306071030487539</v>
       </c>
-      <c r="V32" s="5">
-        <f>O32/T32</f>
+      <c r="W32" s="5">
+        <f>P32/U32</f>
         <v>0.20371852671681887</v>
       </c>
-      <c r="W32" s="5">
-        <f>S32/T32</f>
+      <c r="X32" s="5">
+        <f>T32/U32</f>
         <v>0.56291969606313219</v>
       </c>
-      <c r="X32" s="5">
-        <f>S32/T32</f>
+      <c r="Y32" s="5">
+        <f>T32/U32</f>
         <v>0.56291969606313219</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
@@ -1980,44 +1996,45 @@
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="O33" s="10">
+      <c r="K33" s="5"/>
+      <c r="P33" s="10">
         <v>210.43439669875249</v>
       </c>
-      <c r="P33" s="11">
+      <c r="Q33" s="11">
         <v>2.60703922607658</v>
       </c>
-      <c r="Q33" s="7">
-        <f>P33/O33</f>
+      <c r="R33" s="7">
+        <f>Q33/P33</f>
         <v>1.2388845488072413E-2</v>
       </c>
-      <c r="R33" s="10">
+      <c r="S33" s="10">
         <v>294.60367481420053</v>
       </c>
-      <c r="S33" s="10">
+      <c r="T33" s="10">
         <v>798.47919893728385</v>
       </c>
-      <c r="T33" s="6">
-        <f>SUM(O33:S33)</f>
+      <c r="U33" s="6">
+        <f>SUM(P33:T33)</f>
         <v>1306.1366985218015</v>
       </c>
-      <c r="U33" s="5">
-        <f>R33/T33</f>
+      <c r="V33" s="5">
+        <f>S33/U33</f>
         <v>0.22555347778499246</v>
       </c>
-      <c r="V33" s="5">
-        <f>O33/T33</f>
+      <c r="W33" s="5">
+        <f>P33/U33</f>
         <v>0.16111207727101468</v>
       </c>
-      <c r="W33" s="5">
-        <f>S33/T33</f>
+      <c r="X33" s="5">
+        <f>T33/U33</f>
         <v>0.61132896720607377</v>
       </c>
-      <c r="X33" s="5">
-        <f>S33/T33</f>
+      <c r="Y33" s="5">
+        <f>T33/U33</f>
         <v>0.61132896720607377</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -2044,23 +2061,28 @@
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="4">
+      <c r="K34" s="5">
+        <v>729.33658076210634</v>
+      </c>
+      <c r="L34" s="5">
         <v>45.080000000000005</v>
       </c>
-      <c r="L34" s="5">
+      <c r="M34" s="5">
         <v>328.78493060755761</v>
       </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="8">
+      <c r="N34" s="5">
+        <v>400.55165015454872</v>
+      </c>
+      <c r="O34" s="5">
         <v>14.483917647910022</v>
       </c>
-      <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-      <c r="Y34" s="8">
+      <c r="R34" s="8"/>
+      <c r="Z34" s="8">
         <v>136.9</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>19</v>
       </c>
@@ -2087,10 +2109,10 @@
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="M35" s="4"/>
-      <c r="Y35" s="8"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K35" s="5"/>
+      <c r="Z35" s="8"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>19</v>
       </c>
@@ -2114,45 +2136,36 @@
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="M36" s="9"/>
-      <c r="O36" s="10">
+      <c r="K36" s="5"/>
+      <c r="N36" s="11"/>
+      <c r="P36" s="10">
         <v>5.8937500000000007</v>
       </c>
-      <c r="P36" s="11">
+      <c r="Q36" s="11">
         <v>5.9718750000000001E-2</v>
       </c>
-      <c r="Q36" s="7">
-        <f>P36/O36</f>
+      <c r="R36" s="7">
+        <f>Q36/P36</f>
         <v>1.013255567338282E-2</v>
       </c>
-      <c r="R36" s="10">
+      <c r="S36" s="10">
         <v>2.3125</v>
       </c>
-      <c r="S36" s="10">
-        <v>0</v>
-      </c>
-      <c r="T36" s="6">
-        <f>SUM(O36:S36)</f>
+      <c r="T36" s="10"/>
+      <c r="U36" s="6">
+        <f>SUM(P36:T36)</f>
         <v>8.2761013056733823</v>
       </c>
-      <c r="U36" s="5">
-        <f>R36/T36</f>
+      <c r="V36" s="5">
+        <f>S36/U36</f>
         <v>0.27941900595329217</v>
       </c>
-      <c r="V36" s="5">
-        <f>O36/T36</f>
+      <c r="W36" s="5">
+        <f>P36/U36</f>
         <v>0.71214087192960696</v>
       </c>
-      <c r="W36" s="5">
-        <f>S36/T36</f>
-        <v>0</v>
-      </c>
-      <c r="X36" s="5">
-        <f>S36/T36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>19</v>
       </c>
@@ -2174,8 +2187,9 @@
       <c r="J37" s="2">
         <v>5.875</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>19</v>
       </c>
@@ -2197,8 +2211,9 @@
       <c r="J38" s="2">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>19</v>
       </c>
@@ -2225,45 +2240,46 @@
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="M39" s="9"/>
-      <c r="O39" s="10">
+      <c r="K39" s="5"/>
+      <c r="N39" s="11"/>
+      <c r="P39" s="10">
         <v>31.950000000000003</v>
       </c>
-      <c r="P39" s="11">
+      <c r="Q39" s="11">
         <v>0.47235625000000003</v>
       </c>
-      <c r="Q39" s="7">
-        <f>P39/O39</f>
+      <c r="R39" s="7">
+        <f>Q39/P39</f>
         <v>1.478423317683881E-2</v>
       </c>
-      <c r="R39" s="10">
+      <c r="S39" s="10">
         <v>22.337499999999999</v>
       </c>
-      <c r="S39" s="10">
+      <c r="T39" s="10">
         <v>1.8435726463606257</v>
       </c>
-      <c r="T39" s="6">
-        <f>SUM(O39:S39)</f>
+      <c r="U39" s="6">
+        <f>SUM(P39:T39)</f>
         <v>56.618213129537466</v>
       </c>
-      <c r="U39" s="5">
-        <f>R39/T39</f>
+      <c r="V39" s="5">
+        <f>S39/U39</f>
         <v>0.39452852298418134</v>
       </c>
-      <c r="V39" s="5">
-        <f>O39/T39</f>
+      <c r="W39" s="5">
+        <f>P39/U39</f>
         <v>0.56430604630529801</v>
       </c>
-      <c r="W39" s="5">
-        <f>S39/T39</f>
+      <c r="X39" s="5">
+        <f>T39/U39</f>
         <v>3.2561477031122381E-2</v>
       </c>
-      <c r="X39" s="5">
-        <f>S39/T39</f>
+      <c r="Y39" s="5">
+        <f>T39/U39</f>
         <v>3.2561477031122381E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
@@ -2285,8 +2301,9 @@
       <c r="J40" s="2">
         <v>14.125</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>19</v>
       </c>
@@ -2317,45 +2334,46 @@
       <c r="J41" s="2">
         <v>15.574999999999999</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="O41" s="10">
+      <c r="K41" s="1"/>
+      <c r="N41" s="11"/>
+      <c r="P41" s="10">
         <v>97.636296673003514</v>
       </c>
-      <c r="P41" s="11">
+      <c r="Q41" s="11">
         <v>1.576929912123707</v>
       </c>
-      <c r="Q41" s="7">
-        <f>P41/O41</f>
+      <c r="R41" s="7">
+        <f>Q41/P41</f>
         <v>1.6151062318607266E-2</v>
       </c>
-      <c r="R41" s="10">
+      <c r="S41" s="10">
         <v>119.34398983755042</v>
       </c>
-      <c r="S41" s="10">
+      <c r="T41" s="10">
         <v>11.061435878163755</v>
       </c>
-      <c r="T41" s="6">
-        <f>SUM(O41:S41)</f>
+      <c r="U41" s="6">
+        <f>SUM(P41:T41)</f>
         <v>229.63480336316002</v>
       </c>
-      <c r="U41" s="5">
-        <f>R41/T41</f>
+      <c r="V41" s="5">
+        <f>S41/U41</f>
         <v>0.51971211719510901</v>
       </c>
-      <c r="V41" s="5">
-        <f>O41/T41</f>
+      <c r="W41" s="5">
+        <f>P41/U41</f>
         <v>0.42518074456943211</v>
       </c>
-      <c r="W41" s="5">
-        <f>S41/T41</f>
+      <c r="X41" s="5">
+        <f>T41/U41</f>
         <v>4.81696838465311E-2</v>
       </c>
-      <c r="X41" s="5">
-        <f>S41/T41</f>
+      <c r="Y41" s="5">
+        <f>T41/U41</f>
         <v>4.81696838465311E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>19</v>
       </c>
@@ -2377,8 +2395,9 @@
       <c r="J42" s="2">
         <v>16.625</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
@@ -2400,8 +2419,9 @@
       <c r="J43" s="2">
         <v>19.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>19</v>
       </c>
@@ -2425,45 +2445,46 @@
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="M44" s="9"/>
-      <c r="O44" s="10">
+      <c r="K44" s="5"/>
+      <c r="N44" s="11"/>
+      <c r="P44" s="10">
         <v>178.43939986556762</v>
       </c>
-      <c r="P44" s="11">
+      <c r="Q44" s="11">
         <v>3.0477266722548508</v>
       </c>
-      <c r="Q44" s="7">
-        <f>P44/O44</f>
+      <c r="R44" s="7">
+        <f>Q44/P44</f>
         <v>1.7079897570553039E-2</v>
       </c>
-      <c r="R44" s="10">
+      <c r="S44" s="10">
         <v>226.94069596341399</v>
       </c>
-      <c r="S44" s="10">
+      <c r="T44" s="10">
         <v>91.519673052504658</v>
       </c>
-      <c r="T44" s="6">
-        <f>SUM(O44:S44)</f>
+      <c r="U44" s="6">
+        <f>SUM(P44:T44)</f>
         <v>499.9645754513117</v>
       </c>
-      <c r="U44" s="5">
-        <f>R44/T44</f>
+      <c r="V44" s="5">
+        <f>S44/U44</f>
         <v>0.45391355129222405</v>
       </c>
-      <c r="V44" s="5">
-        <f>O44/T44</f>
+      <c r="W44" s="5">
+        <f>P44/U44</f>
         <v>0.35690408606348284</v>
       </c>
-      <c r="W44" s="5">
-        <f>S44/T44</f>
+      <c r="X44" s="5">
+        <f>T44/U44</f>
         <v>0.18305231519631368</v>
       </c>
-      <c r="X44" s="5">
-        <f>S44/T44</f>
+      <c r="Y44" s="5">
+        <f>T44/U44</f>
         <v>0.18305231519631368</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>19</v>
       </c>
@@ -2485,8 +2506,9 @@
       <c r="J45" s="2">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>19</v>
       </c>
@@ -2508,8 +2530,9 @@
       <c r="J46" s="2">
         <v>23.475000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>19</v>
       </c>
@@ -2536,45 +2559,46 @@
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="M47" s="9"/>
-      <c r="O47" s="10">
+      <c r="K47" s="5"/>
+      <c r="N47" s="11"/>
+      <c r="P47" s="10">
         <v>214.45780535823133</v>
       </c>
-      <c r="P47" s="11">
+      <c r="Q47" s="11">
         <v>3.5873690971259045</v>
       </c>
-      <c r="Q47" s="7">
-        <f>P47/O47</f>
+      <c r="R47" s="7">
+        <f>Q47/P47</f>
         <v>1.6727621972693167E-2</v>
       </c>
-      <c r="R47" s="10">
+      <c r="S47" s="10">
         <v>282.47894443387111</v>
       </c>
-      <c r="S47" s="10">
+      <c r="T47" s="10">
         <v>303.64106075122243</v>
       </c>
-      <c r="T47" s="6">
-        <f>SUM(O47:S47)</f>
+      <c r="U47" s="6">
+        <f>SUM(P47:T47)</f>
         <v>804.18190726242346</v>
       </c>
-      <c r="U47" s="5">
-        <f>R47/T47</f>
+      <c r="V47" s="5">
+        <f>S47/U47</f>
         <v>0.35126249656060915</v>
       </c>
-      <c r="V47" s="5">
-        <f>O47/T47</f>
+      <c r="W47" s="5">
+        <f>P47/U47</f>
         <v>0.26667822717907619</v>
       </c>
-      <c r="W47" s="5">
-        <f>S47/T47</f>
+      <c r="X47" s="5">
+        <f>T47/U47</f>
         <v>0.37757758289398718</v>
       </c>
-      <c r="X47" s="5">
-        <f>S47/T47</f>
+      <c r="Y47" s="5">
+        <f>T47/U47</f>
         <v>0.37757758289398718</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
@@ -2596,8 +2620,9 @@
       <c r="J48" s="2">
         <v>24.774999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
@@ -2624,45 +2649,46 @@
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="M49" s="9"/>
-      <c r="O49" s="10">
+      <c r="K49" s="5"/>
+      <c r="N49" s="11"/>
+      <c r="P49" s="10">
         <v>216.82420168274621</v>
       </c>
-      <c r="P49" s="11">
+      <c r="Q49" s="11">
         <v>3.8612415248064167</v>
       </c>
-      <c r="Q49" s="7">
-        <f>P49/O49</f>
+      <c r="R49" s="7">
+        <f>Q49/P49</f>
         <v>1.7808166684529642E-2</v>
       </c>
-      <c r="R49" s="10">
+      <c r="S49" s="10">
         <v>325.46560562045931</v>
       </c>
-      <c r="S49" s="10">
+      <c r="T49" s="10">
         <v>589.92479634008544</v>
       </c>
-      <c r="T49" s="6">
-        <f>SUM(O49:S49)</f>
+      <c r="U49" s="6">
+        <f>SUM(P49:T49)</f>
         <v>1136.0936533347817</v>
       </c>
-      <c r="U49" s="5">
-        <f>R49/T49</f>
+      <c r="V49" s="5">
+        <f>S49/U49</f>
         <v>0.28647779579185079</v>
       </c>
-      <c r="V49" s="5">
-        <f>O49/T49</f>
+      <c r="W49" s="5">
+        <f>P49/U49</f>
         <v>0.19085064074277766</v>
       </c>
-      <c r="W49" s="5">
-        <f>S49/T49</f>
+      <c r="X49" s="5">
+        <f>T49/U49</f>
         <v>0.51925718853236791</v>
       </c>
-      <c r="X49" s="5">
-        <f>S49/T49</f>
+      <c r="Y49" s="5">
+        <f>T49/U49</f>
         <v>0.51925718853236791</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>19</v>
       </c>
@@ -2689,45 +2715,46 @@
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="M50" s="9"/>
-      <c r="O50" s="10">
+      <c r="K50" s="5"/>
+      <c r="N50" s="11"/>
+      <c r="P50" s="10">
         <v>167.79349020251826</v>
       </c>
-      <c r="P50" s="11">
+      <c r="Q50" s="11">
         <v>2.419173051724484</v>
       </c>
-      <c r="Q50" s="7">
-        <f>P50/O50</f>
+      <c r="R50" s="7">
+        <f>Q50/P50</f>
         <v>1.441756202105734E-2</v>
       </c>
-      <c r="R50" s="10">
+      <c r="S50" s="10">
         <v>353.23362452520678</v>
       </c>
-      <c r="S50" s="10">
+      <c r="T50" s="10">
         <v>753.59700414609051</v>
       </c>
-      <c r="T50" s="6">
-        <f>SUM(O50:S50)</f>
+      <c r="U50" s="6">
+        <f>SUM(P50:T50)</f>
         <v>1277.0577094875612</v>
       </c>
-      <c r="U50" s="5">
-        <f>R50/T50</f>
+      <c r="V50" s="5">
+        <f>S50/U50</f>
         <v>0.27659957878250241</v>
       </c>
-      <c r="V50" s="5">
-        <f>O50/T50</f>
+      <c r="W50" s="5">
+        <f>P50/U50</f>
         <v>0.13139068732441853</v>
       </c>
-      <c r="W50" s="5">
-        <f>S50/T50</f>
+      <c r="X50" s="5">
+        <f>T50/U50</f>
         <v>0.59010411083809422</v>
       </c>
-      <c r="X50" s="5">
-        <f>S50/T50</f>
+      <c r="Y50" s="5">
+        <f>T50/U50</f>
         <v>0.59010411083809422</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>19</v>
       </c>
@@ -2754,19 +2781,24 @@
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="4">
+      <c r="K51" s="5">
+        <v>485.63373045382281</v>
+      </c>
+      <c r="L51" s="5">
         <v>44.080000000000005</v>
       </c>
-      <c r="L51" s="5">
+      <c r="M51" s="5">
         <v>214.06734838404515</v>
       </c>
-      <c r="M51" s="4"/>
-      <c r="N51" s="8">
+      <c r="N51" s="5">
+        <v>271.56638206977766</v>
+      </c>
+      <c r="O51" s="5">
         <v>9.4302796644953784</v>
       </c>
-      <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
-      <c r="Y51" s="8">
+      <c r="R51" s="8"/>
+      <c r="Z51" s="8">
         <v>126.3</v>
       </c>
     </row>
@@ -2779,7 +2811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D514C363-0C51-48C9-B03D-3EAE5BBC25DE}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
